--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
+    <sheet name="Terezinha França" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Campanha 65</t>
   </si>
@@ -59,115 +59,70 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Ana Maria Montanher Viana</t>
-  </si>
-  <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Gabrieli Dos Anjos Cordeiro</t>
-  </si>
-  <si>
-    <t>22/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 550,00</t>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Vitoria Gama Dos Santos</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 330,00</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Jose Miguel Soares</t>
-  </si>
-  <si>
-    <t>28/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.720,00</t>
-  </si>
-  <si>
-    <t>Julia Goncalves Da Silva</t>
-  </si>
-  <si>
-    <t>R$ 1.060,00</t>
-  </si>
-  <si>
-    <t>Francisco Snaches Junior</t>
-  </si>
-  <si>
-    <t>01/11/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.530,00</t>
-  </si>
-  <si>
-    <t>Maria Jose Ribeiro De Almeida</t>
-  </si>
-  <si>
-    <t>R$ 950,00</t>
-  </si>
-  <si>
-    <t>Jasmelina Maria Da Silva</t>
-  </si>
-  <si>
-    <t>04/11/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.930,00</t>
-  </si>
-  <si>
-    <t>Antonio Calgarotto</t>
-  </si>
-  <si>
-    <t>05/11/2024</t>
-  </si>
-  <si>
-    <t>R$ 650,00</t>
-  </si>
-  <si>
-    <t>Daisy Da Cruz</t>
-  </si>
-  <si>
-    <t>14/11/2024</t>
-  </si>
-  <si>
-    <t>R$ 703,00</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
-    <t>Welington Mendes De Sousa</t>
-  </si>
-  <si>
-    <t>R$ 880,00</t>
-  </si>
-  <si>
-    <t>Tereza Dos Santos Rodrigues</t>
-  </si>
-  <si>
-    <t>19/11/2024</t>
-  </si>
-  <si>
-    <t>R$ 590,00</t>
+    <t>Bruna Leticia Cruz Oliveira</t>
+  </si>
+  <si>
+    <t>R$ 700,00</t>
+  </si>
+  <si>
+    <t>Daniela Ferreira De Farias Matos</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 496,35</t>
+  </si>
+  <si>
+    <t>Onilia Maria Goncalves Da Silva</t>
+  </si>
+  <si>
+    <t>26/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.109,70</t>
+  </si>
+  <si>
+    <t>Valdecy Ferreira Santos</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 390,00</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 1.583,00</t>
+    <t>R$ 0,00</t>
   </si>
   <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 9.980,00</t>
+    <t>R$ 3.026,05</t>
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>R$ 11.563,00</t>
   </si>
 </sst>
 </file>
@@ -540,21 +495,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F15" sqref="F15:G15"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37.562" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -608,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>45506</v>
+        <v>45541</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -631,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>45586</v>
+        <v>45540</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -640,10 +595,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
@@ -654,16 +609,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>45583</v>
+        <v>45557</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -677,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>45649</v>
+        <v>45570</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -700,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>45667</v>
+        <v>45632</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -709,157 +664,42 @@
         <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45677</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45690</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45802</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45807</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45858</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="F15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Terezinha França" sheetId="1" r:id="rId4"/>
+    <sheet name="Sibely Fernandes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>Campanha 65</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>Campanha 67</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/10/2024 - 20/11/2024</t>
+    <t>21/12/2024 - 20/01/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>07/12/2024</t>
+    <t>07/02/2025</t>
   </si>
   <si>
     <t>PAGAMENTO PÓS:</t>
   </si>
   <si>
-    <t>25/11/2024</t>
+    <t>06/03/2025</t>
   </si>
   <si>
     <t>Vendedor</t>
@@ -59,70 +59,46 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Terezinha De Jesus Jordão De França</t>
-  </si>
-  <si>
-    <t>Ótica Daily</t>
-  </si>
-  <si>
-    <t>Vitoria Gama Dos Santos</t>
-  </si>
-  <si>
-    <t>24/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 330,00</t>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Zenilde Conceicao Nascimento</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.350,00</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Bruna Leticia Cruz Oliveira</t>
-  </si>
-  <si>
-    <t>R$ 700,00</t>
-  </si>
-  <si>
-    <t>Daniela Ferreira De Farias Matos</t>
-  </si>
-  <si>
-    <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 496,35</t>
-  </si>
-  <si>
-    <t>Onilia Maria Goncalves Da Silva</t>
-  </si>
-  <si>
-    <t>26/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.109,70</t>
-  </si>
-  <si>
-    <t>Valdecy Ferreira Santos</t>
-  </si>
-  <si>
-    <t>31/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 390,00</t>
+    <t>Laurici Maria De Oliveira</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 568,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 3.026,05</t>
-  </si>
-  <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 1.918,00</t>
   </si>
 </sst>
 </file>
@@ -495,18 +471,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10:G10"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -563,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>45541</v>
+        <v>46487</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -586,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>45540</v>
+        <v>46501</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -595,111 +571,42 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45557</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45570</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45632</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sibely Fernandes" sheetId="1" r:id="rId4"/>
+    <sheet name="Terezinha França" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Campanha 67</t>
   </si>
@@ -59,46 +59,79 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sibely Maria Siqueira Fernandes</t>
-  </si>
-  <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Zenilde Conceicao Nascimento</t>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Ervio Jose Boconcelo</t>
+  </si>
+  <si>
+    <t>21/12/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.200,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Dejanira De Alcantara Pereira</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>Niva Pancotti Mendonca</t>
+  </si>
+  <si>
+    <t>11/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 470,00</t>
+  </si>
+  <si>
+    <t>Michel Simion Mlechecov</t>
   </si>
   <si>
     <t>14/01/2025</t>
   </si>
   <si>
-    <t>R$ 1.350,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Laurici Maria De Oliveira</t>
-  </si>
-  <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 568,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
+    <t>R$ 290,00</t>
+  </si>
+  <si>
+    <t>Alessandra Simone Silva Fantucci</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 180,00</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
+    <t>R$ 1.650,00</t>
+  </si>
+  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
+    <t>R$ 1.490,00</t>
+  </si>
+  <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>R$ 1.918,00</t>
+    <t>R$ 3.140,00</t>
   </si>
 </sst>
 </file>
@@ -471,18 +504,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -539,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>46487</v>
+        <v>46321</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -562,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>46501</v>
+        <v>46374</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -581,32 +614,101 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>46450</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46481</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>46525</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Terezinha França" sheetId="1" r:id="rId4"/>
+    <sheet name="Sttefani Cerqueira" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Campanha 67</t>
   </si>
@@ -59,79 +59,46 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Terezinha De Jesus Jordão De França</t>
-  </si>
-  <si>
-    <t>Ótica Daily</t>
-  </si>
-  <si>
-    <t>Ervio Jose Boconcelo</t>
-  </si>
-  <si>
-    <t>21/12/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.200,00</t>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Neula Silva Pacola</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 600,00</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Dejanira De Alcantara Pereira</t>
-  </si>
-  <si>
-    <t>08/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.000,00</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
-    <t>Niva Pancotti Mendonca</t>
-  </si>
-  <si>
-    <t>11/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 470,00</t>
-  </si>
-  <si>
-    <t>Michel Simion Mlechecov</t>
-  </si>
-  <si>
-    <t>14/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 290,00</t>
-  </si>
-  <si>
-    <t>Alessandra Simone Silva Fantucci</t>
-  </si>
-  <si>
-    <t>17/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 180,00</t>
+    <t>Alexandre Da Silva Mendes</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.350,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 1.650,00</t>
-  </si>
-  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 1.490,00</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>R$ 3.140,00</t>
+    <t>R$ 1.950,00</t>
   </si>
 </sst>
 </file>
@@ -504,18 +471,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10:G10"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="32.849" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -572,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>46321</v>
+        <v>46473</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -595,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>46374</v>
+        <v>46592</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -614,101 +581,32 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>46450</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>46481</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>46525</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sttefani Cerqueira" sheetId="1" r:id="rId4"/>
+    <sheet name="Sibely Fernandes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -59,46 +59,46 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sttefani Yohana Silva Cerqueira</t>
+    <t>Sibely Maria Siqueira Fernandes</t>
   </si>
   <si>
     <t>Ótica Matriz</t>
   </si>
   <si>
-    <t>Neula Silva Pacola</t>
-  </si>
-  <si>
-    <t>13/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 600,00</t>
+    <t>Zenilde Conceicao Nascimento</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.350,00</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Alexandre Da Silva Mendes</t>
-  </si>
-  <si>
-    <t>20/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.350,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
+    <t>Laurici Maria De Oliveira</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 568,00</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
+    <t>R$ 1.918,00</t>
+  </si>
+  <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>R$ 1.950,00</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
     <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -539,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>46473</v>
+        <v>46487</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>46592</v>
+        <v>46501</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -577,7 +577,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -587,10 +587,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -598,15 +598,15 @@
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -15,90 +15,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>Campanha 67</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>Campanha 68</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/12/2024 - 20/01/2025</t>
+    <t>21/01/2025 - 20/02/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PÓS:</t>
+  </si>
+  <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>N° Boleto</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Data Venda</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Catia Helena Jameli De Menezes</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.330,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Celso Ricardo Cervera</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>R$ 716,90</t>
+  </si>
+  <si>
+    <t>Suzanete Feliz Dos Santos</t>
+  </si>
+  <si>
+    <t>R$ 1.480,00</t>
+  </si>
+  <si>
+    <t>Deolinda Mansano Castilho</t>
+  </si>
+  <si>
     <t>07/02/2025</t>
   </si>
   <si>
-    <t>PAGAMENTO PÓS:</t>
-  </si>
-  <si>
-    <t>06/03/2025</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>N° Boleto</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Data Venda</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Sibely Maria Siqueira Fernandes</t>
-  </si>
-  <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Zenilde Conceicao Nascimento</t>
-  </si>
-  <si>
-    <t>14/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.350,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Laurici Maria De Oliveira</t>
-  </si>
-  <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 568,00</t>
+    <t>R$ 300,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 1.918,00</t>
+    <t>R$ 4.526,90</t>
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 4.826,90</t>
   </si>
 </sst>
 </file>
@@ -471,10 +489,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,7 +500,7 @@
     <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="38.705" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -539,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>46487</v>
+        <v>46709</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -562,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>46501</v>
+        <v>46815</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -581,32 +599,78 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>46816</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46991</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sibely Fernandes" sheetId="1" r:id="rId4"/>
+    <sheet name="Stephanie Almeida" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
-  <si>
-    <t>Campanha 68</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>Campanha 70</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/01/2025 - 20/02/2025</t>
+    <t>21/03/2025 - 20/04/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>07/03/2025</t>
+    <t>07/05/2025</t>
   </si>
   <si>
     <t>PAGAMENTO PÓS:</t>
   </si>
   <si>
-    <t>07/04/2025</t>
+    <t>07/06/2025</t>
   </si>
   <si>
     <t>Vendedor</t>
@@ -59,49 +59,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sibely Maria Siqueira Fernandes</t>
-  </si>
-  <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Catia Helena Jameli De Menezes</t>
-  </si>
-  <si>
-    <t>24/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 2.330,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Celso Ricardo Cervera</t>
-  </si>
-  <si>
-    <t>31/01/2025</t>
-  </si>
-  <si>
-    <t>R$ 716,90</t>
-  </si>
-  <si>
-    <t>Suzanete Feliz Dos Santos</t>
-  </si>
-  <si>
-    <t>R$ 1.480,00</t>
-  </si>
-  <si>
-    <t>Deolinda Mansano Castilho</t>
-  </si>
-  <si>
-    <t>07/02/2025</t>
-  </si>
-  <si>
-    <t>R$ 300,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
+    <t>Stephanie Gabriele Da Silva Almeida</t>
+  </si>
+  <si>
+    <t>Ótica Prestigio</t>
+  </si>
+  <si>
+    <t>Rosenalva Alves Brito</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.920,00</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
   </si>
   <si>
     <t>Total Pendente:</t>
@@ -110,13 +83,10 @@
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 4.526,90</t>
+    <t>R$ 0,00</t>
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>R$ 4.826,90</t>
   </si>
 </sst>
 </file>
@@ -489,18 +459,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -557,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>46709</v>
+        <v>48235</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -576,101 +546,32 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>46815</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>46816</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>46991</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -4,10 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Stephanie Almeida" sheetId="1" r:id="rId4"/>
+    <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
+    <sheet name="Andressa Leite" sheetId="2" r:id="rId5"/>
+    <sheet name="Carmen Silva" sheetId="3" r:id="rId6"/>
+    <sheet name="Greicy Carvalho" sheetId="4" r:id="rId7"/>
+    <sheet name="Roberta Baessa" sheetId="5" r:id="rId8"/>
+    <sheet name="Sibely Fernandes" sheetId="6" r:id="rId9"/>
+    <sheet name="Sttefani Cerqueira" sheetId="7" r:id="rId10"/>
+    <sheet name="Suzana Baldenebro" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,78 +22,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>Campanha 70</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+  <si>
+    <t>Campanha 72</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/03/2025 - 20/04/2025</t>
+    <t>21/05/2025 - 20/06/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>07/05/2025</t>
-  </si>
-  <si>
-    <t>PAGAMENTO PÓS:</t>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>N° Boleto</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Data Venda</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ana Maria Montanher Viana</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Jose Antonio Zacaratto</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 670,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Ironilda Freire Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.900,00</t>
+  </si>
+  <si>
+    <t>Artur Alavarse</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.400,00</t>
+  </si>
+  <si>
+    <t>Gislaine Providello Pereira</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 715,00</t>
+  </si>
+  <si>
+    <t>Rosana Paula De Araujo Dos Santos</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.950,00</t>
+  </si>
+  <si>
+    <t>Total Pendente:</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>Total Convertido:</t>
+  </si>
+  <si>
+    <t>R$ 6.635,00</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Andressa Marcelino De Mattos Leite</t>
+  </si>
+  <si>
+    <t>Ótica Prestigio</t>
+  </si>
+  <si>
+    <t>Luzia De Fatima Pessoa</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.790,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Carmen Lucia Marciano Da Silva</t>
+  </si>
+  <si>
+    <t>Ione De Sousa Queiroz</t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.600,00</t>
+  </si>
+  <si>
+    <t>Silvia Pereira Da Silva</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 980,00</t>
+  </si>
+  <si>
+    <t>Maria De Lourdes De Souza</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 3.400,00</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>R$ 2.580,00</t>
+  </si>
+  <si>
+    <t>R$ 5.980,00</t>
+  </si>
+  <si>
+    <t>Greicy Kelly Aparecida De Carvalho</t>
+  </si>
+  <si>
+    <t>Roselaine Ferreira De Jesus Dos Santos</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 540,00</t>
+  </si>
+  <si>
+    <t>Edna Brugnari</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 580,00</t>
+  </si>
+  <si>
+    <t>Conceicao Aparecida Dos Santos Elias</t>
+  </si>
+  <si>
+    <t>R$ 2.920,00</t>
+  </si>
+  <si>
+    <t>Joao Batista Medeiros</t>
+  </si>
+  <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.420,00</t>
+  </si>
+  <si>
+    <t>Maria Socorro Brasil</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.450,00</t>
+  </si>
+  <si>
+    <t>R$ 7.910,00</t>
+  </si>
+  <si>
+    <t>Roberta Amaral Baessa</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Francisca Clelma Sousa De Miranda</t>
+  </si>
+  <si>
+    <t>R$ 781,90</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Vanuza Dias Asano</t>
+  </si>
+  <si>
+    <t>R$ 1.590,00</t>
+  </si>
+  <si>
+    <t>Jose Nilson De Souza</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>Vivian Roberta Pian</t>
+  </si>
+  <si>
+    <t>R$ 2.000,00</t>
+  </si>
+  <si>
+    <t>Benedito Simplicio Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.300,00</t>
+  </si>
+  <si>
+    <t>R$ 2.890,00</t>
+  </si>
+  <si>
+    <t>R$ 3.000,00</t>
+  </si>
+  <si>
+    <t>R$ 5.890,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Karen Cristina Paschoal De Abreu</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 900,00</t>
+  </si>
+  <si>
+    <t>Oneida Batista Queiroz</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.660,00</t>
+  </si>
+  <si>
+    <t>Rosemary Ferreira Dos Santos</t>
+  </si>
+  <si>
+    <t>R$ 350,00</t>
+  </si>
+  <si>
+    <t>Manoel Aleixo De Souza</t>
+  </si>
+  <si>
+    <t>R$ 1.100,00</t>
+  </si>
+  <si>
+    <t>R$ 1.450,00</t>
+  </si>
+  <si>
+    <t>R$ 2.560,00</t>
+  </si>
+  <si>
+    <t>R$ 4.010,00</t>
+  </si>
+  <si>
+    <t>Suzana Jodar Alfaro Baldenebro</t>
+  </si>
+  <si>
+    <t>Roberta Caetano Santos</t>
+  </si>
+  <si>
+    <t>21/05/2025</t>
+  </si>
+  <si>
+    <t>R$ 600,00</t>
+  </si>
+  <si>
+    <t>Osvaldo Spineli</t>
+  </si>
+  <si>
+    <t>R$ 700,00</t>
+  </si>
+  <si>
+    <t>Elia Teruel Miriani</t>
+  </si>
+  <si>
+    <t>R$ 4.000,00</t>
+  </si>
+  <si>
+    <t>Ednair Damascena Da Silva Sousa</t>
+  </si>
+  <si>
+    <t>24/05/2025</t>
+  </si>
+  <si>
+    <t>Nailda Alves Dos Santos</t>
+  </si>
+  <si>
+    <t>Catia Maria Silva Da Couto</t>
+  </si>
+  <si>
+    <t>Brenda Rodelis De Lima</t>
+  </si>
+  <si>
+    <t>R$ 3.100,00</t>
+  </si>
+  <si>
+    <t>Neusa De Albuquerque</t>
+  </si>
+  <si>
+    <t>Gi Batista</t>
+  </si>
+  <si>
+    <t>Neide Pinheiro Torres</t>
+  </si>
+  <si>
+    <t>R$ 500,00</t>
+  </si>
+  <si>
+    <t>Antonia Bonimani Spersi</t>
+  </si>
+  <si>
+    <t>R$ 1.650,00</t>
+  </si>
+  <si>
+    <t>Mario Caze Da Silva</t>
   </si>
   <si>
     <t>07/06/2025</t>
   </si>
   <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>N° Boleto</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Data Venda</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Stephanie Gabriele Da Silva Almeida</t>
-  </si>
-  <si>
-    <t>Ótica Prestigio</t>
-  </si>
-  <si>
-    <t>Rosenalva Alves Brito</t>
-  </si>
-  <si>
-    <t>17/04/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.920,00</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
-    <t>Total Pendente:</t>
-  </si>
-  <si>
-    <t>Total Convertido:</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>Total:</t>
+    <t>R$ 800,00</t>
+  </si>
+  <si>
+    <t>Amanda Cristina Dos Santos</t>
+  </si>
+  <si>
+    <t>Evandro Jose Da Silva</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 3.300,00</t>
+  </si>
+  <si>
+    <t>Maria Madalena Tobias Pereira</t>
+  </si>
+  <si>
+    <t>Simei Silveira Baldenbro</t>
+  </si>
+  <si>
+    <t>R$ 1.539,00</t>
+  </si>
+  <si>
+    <t>R$ 5.300,00</t>
+  </si>
+  <si>
+    <t>R$ 18.789,00</t>
+  </si>
+  <si>
+    <t>R$ 24.089,00</t>
   </si>
 </sst>
 </file>
@@ -459,18 +790,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -480,69 +811,299 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>49017</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49025</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49042</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>49176</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>49325</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="3">
-        <v>48235</v>
+        <v>49440</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -552,26 +1113,1509 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>48954</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49080</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49383</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="48.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3">
+        <v>48988</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49118</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49175</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3">
+        <v>49236</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>49262</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3">
+        <v>49087</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3">
+        <v>49055</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="F3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49400</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49443</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3">
+        <v>49435</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="3">
+        <v>48942</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49057</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49266</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3">
+        <v>49429</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3">
+        <v>48918</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3">
+        <v>48938</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3">
+        <v>48947</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3">
+        <v>48965</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3">
+        <v>48977</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3">
+        <v>48999</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3">
+        <v>48995</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3">
+        <v>49027</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="3">
+        <v>49077</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="3">
+        <v>49081</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="3">
+        <v>49135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="3">
+        <v>49225</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="3">
+        <v>49256</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3">
+        <v>49378</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="3">
+        <v>49398</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3">
+        <v>49392</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
-    <sheet name="Andressa Leite" sheetId="2" r:id="rId5"/>
-    <sheet name="Carmen Silva" sheetId="3" r:id="rId6"/>
-    <sheet name="Greicy Carvalho" sheetId="4" r:id="rId7"/>
-    <sheet name="Roberta Baessa" sheetId="5" r:id="rId8"/>
-    <sheet name="Sibely Fernandes" sheetId="6" r:id="rId9"/>
-    <sheet name="Sttefani Cerqueira" sheetId="7" r:id="rId10"/>
-    <sheet name="Suzana Baldenebro" sheetId="8" r:id="rId11"/>
+    <sheet name="Carmen Silva" sheetId="2" r:id="rId5"/>
+    <sheet name="Greicy Carvalho" sheetId="3" r:id="rId6"/>
+    <sheet name="Roberta Baessa" sheetId="4" r:id="rId7"/>
+    <sheet name="Sibely Fernandes" sheetId="5" r:id="rId8"/>
+    <sheet name="Sttefani Cerqueira" sheetId="6" r:id="rId9"/>
+    <sheet name="Suzana Baldenebro" sheetId="7" r:id="rId10"/>
+    <sheet name="Terezinha França" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -22,402 +22,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
-  <si>
-    <t>Campanha 72</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+  <si>
+    <t>Campanha 73</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/05/2025 - 20/06/2025</t>
+    <t>21/06/2025 - 20/07/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>N° Boleto</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Data Venda</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ana Maria Montanher Viana</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Pedra Dos Santos Ribeiro</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.500,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Dione Silveira Da Silva</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 760,00</t>
+  </si>
+  <si>
+    <t>Abraao Oliveira</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.690,00</t>
+  </si>
+  <si>
+    <t>Joselia Monteiro Nascimento Dos Santos</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 4.000,00</t>
+  </si>
+  <si>
+    <t>Solange De Brito</t>
+  </si>
+  <si>
+    <t>28/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.250,00</t>
+  </si>
+  <si>
+    <t>Antonia Pereira Salu</t>
+  </si>
+  <si>
+    <t>02/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.579,60</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Vanda Martins D Souza</t>
+  </si>
+  <si>
+    <t>05/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.750,00</t>
+  </si>
+  <si>
+    <t>Ivo Francisco Filho</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 800,00</t>
+  </si>
+  <si>
+    <t>Cecilia De Jesus Sousa</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.500,00</t>
+  </si>
+  <si>
+    <t>Total Pendente:</t>
+  </si>
+  <si>
+    <t>R$ 5.829,60</t>
+  </si>
+  <si>
+    <t>Total Convertido:</t>
+  </si>
+  <si>
+    <t>R$ 12.000,00</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 17.829,60</t>
+  </si>
+  <si>
+    <t>Carmen Lucia Marciano Da Silva</t>
+  </si>
+  <si>
+    <t>Jorge Pereira Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 930,00</t>
+  </si>
+  <si>
+    <t>Selma Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.060,00</t>
+  </si>
+  <si>
+    <t>R$ 1.990,00</t>
+  </si>
+  <si>
+    <t>Greicy Kelly Aparecida De Carvalho</t>
+  </si>
+  <si>
+    <t>Ótica Prestigio</t>
+  </si>
+  <si>
+    <t>Noeme Pereira Soares Viegas</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>Jose Lopes Muniz</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 2.750,00</t>
+  </si>
+  <si>
+    <t>Roberta Amaral Baessa</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Esther Miniussi</t>
+  </si>
+  <si>
+    <t>R$ 719,70</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Jose Severino De Almeida</t>
+  </si>
+  <si>
+    <t>R$ 830,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Gustavo Viana Neves</t>
+  </si>
+  <si>
+    <t>21/06/2025</t>
+  </si>
+  <si>
+    <t>R$ 300,00</t>
+  </si>
+  <si>
+    <t>Josefa Souza Dos Santos</t>
+  </si>
+  <si>
+    <t>R$ 550,00</t>
+  </si>
+  <si>
+    <t>Zildineide Ferreira Da Silva</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 600,00</t>
+  </si>
+  <si>
+    <t>Maria Cristina De Jesus Santos</t>
+  </si>
+  <si>
+    <t>R$ 1.600,00</t>
+  </si>
+  <si>
+    <t>Maria Cristina Rosca</t>
+  </si>
+  <si>
     <t>07/07/2025</t>
   </si>
   <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>N° Boleto</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Data Venda</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Ana Maria Montanher Viana</t>
-  </si>
-  <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Jose Antonio Zacaratto</t>
-  </si>
-  <si>
-    <t>27/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 670,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Ironilda Freire Da Silva</t>
-  </si>
-  <si>
-    <t>R$ 1.900,00</t>
-  </si>
-  <si>
-    <t>Artur Alavarse</t>
-  </si>
-  <si>
-    <t>28/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.400,00</t>
-  </si>
-  <si>
-    <t>Gislaine Providello Pereira</t>
-  </si>
-  <si>
-    <t>05/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 715,00</t>
-  </si>
-  <si>
-    <t>Rosana Paula De Araujo Dos Santos</t>
-  </si>
-  <si>
-    <t>16/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.950,00</t>
-  </si>
-  <si>
-    <t>Total Pendente:</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>Total Convertido:</t>
-  </si>
-  <si>
-    <t>R$ 6.635,00</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Andressa Marcelino De Mattos Leite</t>
-  </si>
-  <si>
-    <t>Ótica Prestigio</t>
-  </si>
-  <si>
-    <t>Luzia De Fatima Pessoa</t>
-  </si>
-  <si>
-    <t>20/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.790,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Carmen Lucia Marciano Da Silva</t>
-  </si>
-  <si>
-    <t>Ione De Sousa Queiroz</t>
-  </si>
-  <si>
-    <t>23/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.600,00</t>
-  </si>
-  <si>
-    <t>Silvia Pereira Da Silva</t>
-  </si>
-  <si>
-    <t>30/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 980,00</t>
-  </si>
-  <si>
-    <t>Maria De Lourdes De Souza</t>
-  </si>
-  <si>
-    <t>18/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 3.400,00</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
-    <t>R$ 2.580,00</t>
-  </si>
-  <si>
-    <t>R$ 5.980,00</t>
-  </si>
-  <si>
-    <t>Greicy Kelly Aparecida De Carvalho</t>
-  </si>
-  <si>
-    <t>Roselaine Ferreira De Jesus Dos Santos</t>
-  </si>
-  <si>
-    <t>26/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 540,00</t>
-  </si>
-  <si>
-    <t>Edna Brugnari</t>
-  </si>
-  <si>
-    <t>02/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 580,00</t>
-  </si>
-  <si>
-    <t>Conceicao Aparecida Dos Santos Elias</t>
-  </si>
-  <si>
-    <t>R$ 2.920,00</t>
-  </si>
-  <si>
-    <t>Joao Batista Medeiros</t>
-  </si>
-  <si>
-    <t>09/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.420,00</t>
-  </si>
-  <si>
-    <t>Maria Socorro Brasil</t>
-  </si>
-  <si>
-    <t>10/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 2.450,00</t>
-  </si>
-  <si>
-    <t>R$ 7.910,00</t>
-  </si>
-  <si>
-    <t>Roberta Amaral Baessa</t>
-  </si>
-  <si>
-    <t>Ótica Daily</t>
-  </si>
-  <si>
-    <t>Francisca Clelma Sousa De Miranda</t>
-  </si>
-  <si>
-    <t>R$ 781,90</t>
-  </si>
-  <si>
-    <t>Sibely Maria Siqueira Fernandes</t>
-  </si>
-  <si>
-    <t>Vanuza Dias Asano</t>
-  </si>
-  <si>
-    <t>R$ 1.590,00</t>
-  </si>
-  <si>
-    <t>Jose Nilson De Souza</t>
-  </si>
-  <si>
-    <t>R$ 1.000,00</t>
-  </si>
-  <si>
-    <t>Vivian Roberta Pian</t>
-  </si>
-  <si>
-    <t>R$ 2.000,00</t>
-  </si>
-  <si>
-    <t>Benedito Simplicio Da Silva</t>
-  </si>
-  <si>
-    <t>R$ 1.300,00</t>
-  </si>
-  <si>
-    <t>R$ 2.890,00</t>
-  </si>
-  <si>
-    <t>R$ 3.000,00</t>
-  </si>
-  <si>
-    <t>R$ 5.890,00</t>
-  </si>
-  <si>
-    <t>Sttefani Yohana Silva Cerqueira</t>
-  </si>
-  <si>
-    <t>Karen Cristina Paschoal De Abreu</t>
-  </si>
-  <si>
-    <t>22/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 900,00</t>
-  </si>
-  <si>
-    <t>Oneida Batista Queiroz</t>
-  </si>
-  <si>
-    <t>29/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.660,00</t>
-  </si>
-  <si>
-    <t>Rosemary Ferreira Dos Santos</t>
-  </si>
-  <si>
-    <t>R$ 350,00</t>
-  </si>
-  <si>
-    <t>Manoel Aleixo De Souza</t>
-  </si>
-  <si>
-    <t>R$ 1.100,00</t>
-  </si>
-  <si>
-    <t>R$ 1.450,00</t>
-  </si>
-  <si>
-    <t>R$ 2.560,00</t>
-  </si>
-  <si>
-    <t>R$ 4.010,00</t>
+    <t>R$ 1.200,00</t>
+  </si>
+  <si>
+    <t>Beatriz Cartano De Souza</t>
+  </si>
+  <si>
+    <t>R$ 4.200,00</t>
+  </si>
+  <si>
+    <t>R$ 4.800,00</t>
   </si>
   <si>
     <t>Suzana Jodar Alfaro Baldenebro</t>
   </si>
   <si>
-    <t>Roberta Caetano Santos</t>
-  </si>
-  <si>
-    <t>21/05/2025</t>
-  </si>
-  <si>
-    <t>R$ 600,00</t>
-  </si>
-  <si>
-    <t>Osvaldo Spineli</t>
+    <t>Ana Lucia Rosario Do Nascimento</t>
+  </si>
+  <si>
+    <t>R$ 750,00</t>
+  </si>
+  <si>
+    <t>Paulo Moll</t>
   </si>
   <si>
     <t>R$ 700,00</t>
   </si>
   <si>
-    <t>Elia Teruel Miriani</t>
-  </si>
-  <si>
-    <t>R$ 4.000,00</t>
-  </si>
-  <si>
-    <t>Ednair Damascena Da Silva Sousa</t>
-  </si>
-  <si>
-    <t>24/05/2025</t>
-  </si>
-  <si>
-    <t>Nailda Alves Dos Santos</t>
-  </si>
-  <si>
-    <t>Catia Maria Silva Da Couto</t>
-  </si>
-  <si>
-    <t>Brenda Rodelis De Lima</t>
-  </si>
-  <si>
-    <t>R$ 3.100,00</t>
-  </si>
-  <si>
-    <t>Neusa De Albuquerque</t>
-  </si>
-  <si>
-    <t>Gi Batista</t>
-  </si>
-  <si>
-    <t>Neide Pinheiro Torres</t>
-  </si>
-  <si>
-    <t>R$ 500,00</t>
-  </si>
-  <si>
-    <t>Antonia Bonimani Spersi</t>
-  </si>
-  <si>
-    <t>R$ 1.650,00</t>
-  </si>
-  <si>
-    <t>Mario Caze Da Silva</t>
-  </si>
-  <si>
-    <t>07/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 800,00</t>
-  </si>
-  <si>
-    <t>Amanda Cristina Dos Santos</t>
-  </si>
-  <si>
-    <t>Evandro Jose Da Silva</t>
-  </si>
-  <si>
-    <t>17/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 3.300,00</t>
-  </si>
-  <si>
-    <t>Maria Madalena Tobias Pereira</t>
-  </si>
-  <si>
-    <t>Simei Silveira Baldenbro</t>
-  </si>
-  <si>
-    <t>R$ 1.539,00</t>
-  </si>
-  <si>
-    <t>R$ 5.300,00</t>
-  </si>
-  <si>
-    <t>R$ 18.789,00</t>
-  </si>
-  <si>
-    <t>R$ 24.089,00</t>
+    <t>Aline Resende De Oliveira</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>Dalva Maria Pergoli</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 5.700,00</t>
+  </si>
+  <si>
+    <t>R$ 3.950,00</t>
+  </si>
+  <si>
+    <t>R$ 9.650,00</t>
+  </si>
+  <si>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Lucio Claudio De Araujo</t>
+  </si>
+  <si>
+    <t>R$ 390,00</t>
+  </si>
+  <si>
+    <t>Welligton Macedo Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 233,00</t>
+  </si>
+  <si>
+    <t>Ligia Costa Caldeira</t>
+  </si>
+  <si>
+    <t>Guilherme De Lima Rodrigues</t>
+  </si>
+  <si>
+    <t>R$ 2.099,80</t>
+  </si>
+  <si>
+    <t>R$ 3.422,80</t>
   </si>
 </sst>
 </file>
@@ -790,10 +718,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G10"/>
+      <selection activeCell="A1" sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,10 +729,10 @@
     <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="48.131" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -854,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>49017</v>
+        <v>49479</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -877,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>49025</v>
+        <v>49489</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -886,10 +814,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -900,19 +828,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>49042</v>
+        <v>49507</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -923,19 +851,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>49176</v>
+        <v>49542</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
@@ -946,61 +874,153 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>49325</v>
+        <v>49558</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>49654</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>49735</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>49784</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>49829</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1024,21 +1044,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G6"/>
+      <selection activeCell="A1" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="30.421" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1085,38 +1105,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3">
-        <v>49440</v>
+        <v>49503</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49795</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1126,10 +1156,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1139,10 +1169,23 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1166,18 +1209,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G8"/>
+      <selection activeCell="A1" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -1227,22 +1270,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3">
-        <v>48954</v>
+        <v>49467</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -1250,48 +1293,38 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3">
-        <v>49080</v>
+        <v>49578</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3">
-        <v>49383</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1301,10 +1334,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1314,23 +1347,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1354,18 +1374,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G10"/>
+      <selection activeCell="A1" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="48.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30.421" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -1415,156 +1435,64 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3">
-        <v>48988</v>
+        <v>49570</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="3">
-        <v>49118</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3">
-        <v>49175</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3">
-        <v>49236</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3">
-        <v>49262</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1596,10 +1524,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -1649,22 +1577,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3">
+        <v>49488</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="3">
-        <v>49087</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -1677,10 +1605,10 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1690,10 +1618,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1703,10 +1631,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G9"/>
+      <selection activeCell="A1" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1741,7 +1669,7 @@
     <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="38.705" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -1791,45 +1719,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3">
-        <v>49055</v>
+        <v>49459</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3">
-        <v>49400</v>
+        <v>49553</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1837,74 +1765,94 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
-        <v>49443</v>
+        <v>49633</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3">
-        <v>49435</v>
+        <v>49652</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3">
+        <v>49770</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>83</v>
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3">
+        <v>49769</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1914,10 +1862,36 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1949,10 +1923,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -2002,22 +1976,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3">
-        <v>48942</v>
+        <v>49477</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -2025,19 +1999,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
-        <v>49057</v>
+        <v>49494</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>91</v>
@@ -2048,10 +2022,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3">
-        <v>49266</v>
+        <v>49677</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2060,21 +2034,21 @@
         <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3">
-        <v>49429</v>
+        <v>49710</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -2083,13 +2057,13 @@
         <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2099,7 +2073,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>96</v>
@@ -2112,7 +2086,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>97</v>
@@ -2125,7 +2099,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>98</v>
@@ -2152,21 +2126,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G21"/>
+      <selection activeCell="A1" sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2216,19 +2190,19 @@
         <v>99</v>
       </c>
       <c r="B3" s="3">
-        <v>48918</v>
+        <v>49544</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -2239,19 +2213,19 @@
         <v>99</v>
       </c>
       <c r="B4" s="3">
-        <v>48938</v>
+        <v>49547</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -2262,19 +2236,19 @@
         <v>99</v>
       </c>
       <c r="B5" s="3">
-        <v>48947</v>
+        <v>49546</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -2285,337 +2259,61 @@
         <v>99</v>
       </c>
       <c r="B6" s="3">
-        <v>48965</v>
+        <v>49651</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="3">
-        <v>48977</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="3">
-        <v>48999</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="3">
-        <v>48995</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="3">
-        <v>49027</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="3">
-        <v>49077</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="3">
-        <v>49081</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="3">
-        <v>49135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="3">
-        <v>49225</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="3">
-        <v>49256</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="3">
-        <v>49378</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="3">
-        <v>49398</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="3">
-        <v>49392</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>131</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Andressa Leite" sheetId="1" r:id="rId4"/>
+    <sheet name="Sttefani Cerqueira" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>Campanha 72</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>Campanha 74</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/05/2025 - 20/06/2025</t>
+    <t>21/07/2025 - 20/08/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>07/07/2025</t>
+    <t>05/09/2025</t>
   </si>
   <si>
     <t>PAGAMENTO PÓS:</t>
   </si>
   <si>
-    <t>07/08/2025</t>
+    <t>06/10/2025</t>
   </si>
   <si>
     <t>Vendedor</t>
@@ -59,34 +59,97 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Andressa Marcelino De Mattos Leite</t>
-  </si>
-  <si>
-    <t>Ótica Prestigio</t>
-  </si>
-  <si>
-    <t>Luzia De Fatima Pessoa</t>
-  </si>
-  <si>
-    <t>20/06/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.790,00</t>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Terezinha Aparecida Martorelli</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.600,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Aparecida Nacarato Fachini</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 700,00</t>
   </si>
   <si>
     <t>Pendente</t>
   </si>
   <si>
+    <t>Taynara Carvalho De Oliveira</t>
+  </si>
+  <si>
+    <t>26/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.300,00</t>
+  </si>
+  <si>
+    <t>Joao Eloi Pereira</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>R$ 665,00</t>
+  </si>
+  <si>
+    <t>Antonio Marcos Batista Da Silva</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 760,00</t>
+  </si>
+  <si>
+    <t>Isaura Da Silva Mendes</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.450,00</t>
+  </si>
+  <si>
+    <t>Celio Henrique De Andrade</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.580,00</t>
+  </si>
+  <si>
     <t>Total Pendente:</t>
   </si>
   <si>
+    <t>R$ 2.280,00</t>
+  </si>
+  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 0,00</t>
+    <t>R$ 5.775,00</t>
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 8.055,00</t>
   </si>
 </sst>
 </file>
@@ -459,18 +522,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="29.279" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -527,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>49440</v>
+        <v>49985</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -546,32 +609,170 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50039</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50079</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50119</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50188</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50219</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50246</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -4,10 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sttefani Cerqueira" sheetId="1" r:id="rId4"/>
+    <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
+    <sheet name="Andressa Leite" sheetId="2" r:id="rId5"/>
+    <sheet name="Carmen Silva" sheetId="3" r:id="rId6"/>
+    <sheet name="Drielly Silva" sheetId="4" r:id="rId7"/>
+    <sheet name="Greicy Carvalho" sheetId="5" r:id="rId8"/>
+    <sheet name="Sibely Fernandes" sheetId="6" r:id="rId9"/>
+    <sheet name="Sttefani Cerqueira" sheetId="7" r:id="rId10"/>
+    <sheet name="Suzana Baldenebro" sheetId="8" r:id="rId11"/>
+    <sheet name="Terezinha França" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,141 +23,540 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>Campanha 74</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+  <si>
+    <t>Campanha 75</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/07/2025 - 20/08/2025</t>
+    <t>21/08/2025 - 20/09/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
+    <t>05/10/2025</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>N° Boleto</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Data Venda</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ana Maria Montanher Viana</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Laudiceia Aparecida Santos</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.430,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Sandreli Aires</t>
+  </si>
+  <si>
+    <t>R$ 300,00</t>
+  </si>
+  <si>
+    <t>Jaqueline Santos Silva</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.860,00</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>Carolina Amanda Giolo</t>
+  </si>
+  <si>
+    <t>23/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 600,00</t>
+  </si>
+  <si>
+    <t>Doraolinda Fogaca Felfoldi</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.400,00</t>
+  </si>
+  <si>
+    <t>Jose Pereira Da Silva</t>
+  </si>
+  <si>
+    <t>30/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.200,00</t>
+  </si>
+  <si>
+    <t>Tayna Viviane Valenzuela Tognollo</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 790,00</t>
+  </si>
+  <si>
+    <t>Antonio Olavio Do Nascimento</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 500,00</t>
+  </si>
+  <si>
+    <t>Luciana Neila</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.980,00</t>
+  </si>
+  <si>
+    <t>Claudia Regina Paulo</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 3.780,00</t>
+  </si>
+  <si>
+    <t>Agostinho Marcos Fratini</t>
+  </si>
+  <si>
+    <t>R$ 1.990,00</t>
+  </si>
+  <si>
+    <t>Total Pendente:</t>
+  </si>
+  <si>
+    <t>R$ 6.640,00</t>
+  </si>
+  <si>
+    <t>Total Convertido:</t>
+  </si>
+  <si>
+    <t>R$ 11.190,00</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 17.830,00</t>
+  </si>
+  <si>
+    <t>Andressa Marcelino De Mattos Leite</t>
+  </si>
+  <si>
+    <t>Ótica Prestigio</t>
+  </si>
+  <si>
+    <t>Isabel Cristina Hernandes</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.480,00</t>
+  </si>
+  <si>
+    <t>Janicleide Da Silva Almeida Viana</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.389,00</t>
+  </si>
+  <si>
+    <t>Flavia Alves Dos Santos Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.390,00</t>
+  </si>
+  <si>
+    <t>Jandui Leite Da Silva</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 990,00</t>
+  </si>
+  <si>
+    <t>Gabriel Francisco Dos Santos</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 960,00</t>
+  </si>
+  <si>
+    <t>Adailza De Jesus Alves</t>
+  </si>
+  <si>
+    <t>Magda Dos Santos Barbosa</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 590,00</t>
+  </si>
+  <si>
+    <t>Amanda Cristina Felipe Barreto</t>
+  </si>
+  <si>
+    <t>R$ 490,00</t>
+  </si>
+  <si>
+    <t>Ana Rosa De Jesus Catarino</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 400,00</t>
+  </si>
+  <si>
+    <t>R$ 8.690,00</t>
+  </si>
+  <si>
+    <t>R$ 11.079,00</t>
+  </si>
+  <si>
+    <t>Carmen Lucia Marciano Da Silva</t>
+  </si>
+  <si>
+    <t>Claudinei Francisco Fazolin</t>
+  </si>
+  <si>
+    <t>R$ 700,00</t>
+  </si>
+  <si>
+    <t>Erenilde Alves De Oliveira Ferreira</t>
+  </si>
+  <si>
+    <t>Norberto Gigliolli</t>
+  </si>
+  <si>
+    <t>R$ 1.100,00</t>
+  </si>
+  <si>
+    <t>Maria Jose Silva Barbosa</t>
+  </si>
+  <si>
+    <t>R$ 750,00</t>
+  </si>
+  <si>
+    <t>Cleide Santana Goncalves Rufatto</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.450,00</t>
+  </si>
+  <si>
+    <t>R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>R$ 3.750,00</t>
+  </si>
+  <si>
+    <t>Drielly Da Silva</t>
+  </si>
+  <si>
+    <t>Carlos Almir Ribeiro De Brito</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.190,00</t>
+  </si>
+  <si>
+    <t>Maria Do Carmo Maltoni Oliveira</t>
+  </si>
+  <si>
+    <t>R$ 2.580,00</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>Greicy Kelly Aparecida De Carvalho</t>
+  </si>
+  <si>
+    <t>Mario Frediani</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.950,00</t>
+  </si>
+  <si>
+    <t>Irismar Tavares Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.420,00</t>
+  </si>
+  <si>
+    <t>Inacio Abdias Feitosa</t>
+  </si>
+  <si>
+    <t>R$ 5.500,00</t>
+  </si>
+  <si>
+    <t>Maria Do Carmo Moreira</t>
+  </si>
+  <si>
+    <t>Beatriz Cristina Goncalves</t>
+  </si>
+  <si>
+    <t>R$ 2.000,00</t>
+  </si>
+  <si>
+    <t>Silvania Ferreira Da Silva Souza</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.250,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>R$ 4.750,00</t>
+  </si>
+  <si>
+    <t>R$ 8.870,00</t>
+  </si>
+  <si>
+    <t>R$ 13.620,00</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Iracilene Torres De Souza</t>
+  </si>
+  <si>
+    <t>Sandra Cristina Da Silva Cardoso</t>
+  </si>
+  <si>
+    <t>13/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.130,00</t>
+  </si>
+  <si>
+    <t>R$ 3.130,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Irene Cois</t>
+  </si>
+  <si>
+    <t>Sandra Iara Regina</t>
+  </si>
+  <si>
+    <t>R$ 1.150,00</t>
+  </si>
+  <si>
+    <t>Monica Regina Jorge</t>
+  </si>
+  <si>
+    <t>R$ 1.560,00</t>
+  </si>
+  <si>
+    <t>Rosalina Constantino</t>
+  </si>
+  <si>
     <t>05/09/2025</t>
   </si>
   <si>
-    <t>PAGAMENTO PÓS:</t>
-  </si>
-  <si>
-    <t>06/10/2025</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>N° Boleto</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Data Venda</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Sttefani Yohana Silva Cerqueira</t>
-  </si>
-  <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Terezinha Aparecida Martorelli</t>
-  </si>
-  <si>
-    <t>22/07/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.600,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Aparecida Nacarato Fachini</t>
-  </si>
-  <si>
-    <t>24/07/2025</t>
-  </si>
-  <si>
-    <t>R$ 700,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Taynara Carvalho De Oliveira</t>
-  </si>
-  <si>
-    <t>26/07/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.300,00</t>
-  </si>
-  <si>
-    <t>Joao Eloi Pereira</t>
-  </si>
-  <si>
-    <t>29/07/2025</t>
-  </si>
-  <si>
-    <t>R$ 665,00</t>
-  </si>
-  <si>
-    <t>Antonio Marcos Batista Da Silva</t>
-  </si>
-  <si>
-    <t>02/08/2025</t>
-  </si>
-  <si>
-    <t>R$ 760,00</t>
-  </si>
-  <si>
-    <t>Isaura Da Silva Mendes</t>
-  </si>
-  <si>
-    <t>04/08/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.450,00</t>
-  </si>
-  <si>
-    <t>Celio Henrique De Andrade</t>
-  </si>
-  <si>
-    <t>06/08/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.580,00</t>
-  </si>
-  <si>
-    <t>Total Pendente:</t>
-  </si>
-  <si>
-    <t>R$ 2.280,00</t>
-  </si>
-  <si>
-    <t>Total Convertido:</t>
-  </si>
-  <si>
-    <t>R$ 5.775,00</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>R$ 8.055,00</t>
+    <t>Genivaldo Lopes De Araujo</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>Erivaldo Bispo Dos Santos</t>
+  </si>
+  <si>
+    <t>Jose Roberto Dos Santos</t>
+  </si>
+  <si>
+    <t>R$ 1.870,00</t>
+  </si>
+  <si>
+    <t>Maria Da Piedade Da Silva Rodrigues</t>
+  </si>
+  <si>
+    <t>R$ 1.700,00</t>
+  </si>
+  <si>
+    <t>Maria Elenilde Ribeiro Barbosa</t>
+  </si>
+  <si>
+    <t>R$ 2.100,00</t>
+  </si>
+  <si>
+    <t>R$ 8.060,00</t>
+  </si>
+  <si>
+    <t>R$ 6.070,00</t>
+  </si>
+  <si>
+    <t>R$ 14.130,00</t>
+  </si>
+  <si>
+    <t>Suzana Jodar Alfaro Baldenebro</t>
+  </si>
+  <si>
+    <t>Jose Roberto Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.800,00</t>
+  </si>
+  <si>
+    <t>Leoniza Araujo Rios</t>
+  </si>
+  <si>
+    <t>Rodrigo Pirangi</t>
+  </si>
+  <si>
+    <t>R$ 900,00</t>
+  </si>
+  <si>
+    <t>Maria Das Neves Silva Souza</t>
+  </si>
+  <si>
+    <t>R$ 2.050,00</t>
+  </si>
+  <si>
+    <t>Daiane Zancape Rodrigues</t>
+  </si>
+  <si>
+    <t>R$ 350,00</t>
+  </si>
+  <si>
+    <t>Josefa Rozineide Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 4.550,00</t>
+  </si>
+  <si>
+    <t>R$ 1.850,00</t>
+  </si>
+  <si>
+    <t>R$ 6.400,00</t>
+  </si>
+  <si>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Maria Aparecida Gossi</t>
+  </si>
+  <si>
+    <t>Fernanda De Oliveira Teruel</t>
+  </si>
+  <si>
+    <t>R$ 1.900,00</t>
+  </si>
+  <si>
+    <t>Denise Aparecida De Oliveira Marchezani</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 599,90</t>
+  </si>
+  <si>
+    <t>Mirian Neves Pereira</t>
+  </si>
+  <si>
+    <t>R$ 375,00</t>
+  </si>
+  <si>
+    <t>Angelino Cardoso</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.320,00</t>
+  </si>
+  <si>
+    <t>Ricardo Zanuto Pereira</t>
+  </si>
+  <si>
+    <t>R$ 1.181,60</t>
+  </si>
+  <si>
+    <t>Margarete Tonobohn Zampromo</t>
+  </si>
+  <si>
+    <t>R$ 1.499,90</t>
+  </si>
+  <si>
+    <t>R$ 4.376,50</t>
+  </si>
+  <si>
+    <t>R$ 4.479,90</t>
+  </si>
+  <si>
+    <t>R$ 8.856,40</t>
   </si>
 </sst>
 </file>
@@ -521,19 +928,720 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F12" sqref="F12:G12"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50526</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50521</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50586</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50627</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50672</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50740</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50756</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50800</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50920</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>51054</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>51052</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50725</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3">
+        <v>56093</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50796</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50827</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50934</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50923</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50963</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50958</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50997</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="44.703" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -543,207 +1651,183 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3">
-        <v>49985</v>
+        <v>50524</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
-        <v>50039</v>
+        <v>50760</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3">
-        <v>50079</v>
+        <v>50932</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3">
-        <v>50119</v>
+        <v>51055</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3">
-        <v>50188</v>
+        <v>51150</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>50219</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>50246</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -753,32 +1837,1472 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50635</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50828</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50953</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3">
+        <v>51004</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3">
+        <v>51056</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50939</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51036</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50587</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50783</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50817</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50868</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50974</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50989</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3">
+        <v>51008</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="3">
+        <v>51154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3">
+        <v>51149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50759</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50765</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50948</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="3">
+        <v>51049</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="3">
+        <v>51051</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51148</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="49.417" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50534</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50744</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50893</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50888</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="3">
+        <v>51136</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51170</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="3">
+        <v>51163</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -448,10 +448,10 @@
     <t>R$ 2.100,00</t>
   </si>
   <si>
-    <t>R$ 8.060,00</t>
-  </si>
-  <si>
-    <t>R$ 6.070,00</t>
+    <t>R$ 5.960,00</t>
+  </si>
+  <si>
+    <t>R$ 8.170,00</t>
   </si>
   <si>
     <t>R$ 14.130,00</t>
@@ -2718,7 +2718,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -295,141 +295,141 @@
     <t>19/09/2025</t>
   </si>
   <si>
-    <t>R$ 1.450,00</t>
+    <t>R$ 3.000,00</t>
+  </si>
+  <si>
+    <t>R$ 3.750,00</t>
+  </si>
+  <si>
+    <t>Drielly Da Silva</t>
+  </si>
+  <si>
+    <t>Carlos Almir Ribeiro De Brito</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.190,00</t>
+  </si>
+  <si>
+    <t>Maria Do Carmo Maltoni Oliveira</t>
+  </si>
+  <si>
+    <t>R$ 2.580,00</t>
+  </si>
+  <si>
+    <t>Greicy Kelly Aparecida De Carvalho</t>
+  </si>
+  <si>
+    <t>Mario Frediani</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.950,00</t>
+  </si>
+  <si>
+    <t>Irismar Tavares Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.420,00</t>
+  </si>
+  <si>
+    <t>Inacio Abdias Feitosa</t>
+  </si>
+  <si>
+    <t>R$ 5.500,00</t>
+  </si>
+  <si>
+    <t>Maria Do Carmo Moreira</t>
+  </si>
+  <si>
+    <t>Beatriz Cristina Goncalves</t>
+  </si>
+  <si>
+    <t>R$ 2.000,00</t>
+  </si>
+  <si>
+    <t>Silvania Ferreira Da Silva Souza</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.250,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>R$ 2.750,00</t>
+  </si>
+  <si>
+    <t>R$ 10.870,00</t>
+  </si>
+  <si>
+    <t>R$ 13.620,00</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Iracilene Torres De Souza</t>
+  </si>
+  <si>
+    <t>Sandra Cristina Da Silva Cardoso</t>
+  </si>
+  <si>
+    <t>13/09/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.130,00</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 3.130,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Irene Cois</t>
+  </si>
+  <si>
+    <t>Sandra Iara Regina</t>
+  </si>
+  <si>
+    <t>R$ 1.150,00</t>
+  </si>
+  <si>
+    <t>Monica Regina Jorge</t>
+  </si>
+  <si>
+    <t>R$ 1.560,00</t>
+  </si>
+  <si>
+    <t>Rosalina Constantino</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>Genivaldo Lopes De Araujo</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>Erivaldo Bispo Dos Santos</t>
   </si>
   <si>
     <t>R$ 2.300,00</t>
   </si>
   <si>
-    <t>R$ 3.750,00</t>
-  </si>
-  <si>
-    <t>Drielly Da Silva</t>
-  </si>
-  <si>
-    <t>Carlos Almir Ribeiro De Brito</t>
-  </si>
-  <si>
-    <t>17/09/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.190,00</t>
-  </si>
-  <si>
-    <t>Maria Do Carmo Maltoni Oliveira</t>
-  </si>
-  <si>
-    <t>R$ 2.580,00</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>Greicy Kelly Aparecida De Carvalho</t>
-  </si>
-  <si>
-    <t>Mario Frediani</t>
-  </si>
-  <si>
-    <t>25/08/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.950,00</t>
-  </si>
-  <si>
-    <t>Irismar Tavares Da Silva</t>
-  </si>
-  <si>
-    <t>R$ 1.420,00</t>
-  </si>
-  <si>
-    <t>Inacio Abdias Feitosa</t>
-  </si>
-  <si>
-    <t>R$ 5.500,00</t>
-  </si>
-  <si>
-    <t>Maria Do Carmo Moreira</t>
-  </si>
-  <si>
-    <t>Beatriz Cristina Goncalves</t>
-  </si>
-  <si>
-    <t>R$ 2.000,00</t>
-  </si>
-  <si>
-    <t>Silvania Ferreira Da Silva Souza</t>
-  </si>
-  <si>
-    <t>20/09/2025</t>
-  </si>
-  <si>
-    <t>R$ 2.250,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>R$ 4.750,00</t>
-  </si>
-  <si>
-    <t>R$ 8.870,00</t>
-  </si>
-  <si>
-    <t>R$ 13.620,00</t>
-  </si>
-  <si>
-    <t>Sibely Maria Siqueira Fernandes</t>
-  </si>
-  <si>
-    <t>Iracilene Torres De Souza</t>
-  </si>
-  <si>
-    <t>Sandra Cristina Da Silva Cardoso</t>
-  </si>
-  <si>
-    <t>13/09/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.130,00</t>
-  </si>
-  <si>
-    <t>R$ 3.130,00</t>
-  </si>
-  <si>
-    <t>Sttefani Yohana Silva Cerqueira</t>
-  </si>
-  <si>
-    <t>Irene Cois</t>
-  </si>
-  <si>
-    <t>Sandra Iara Regina</t>
-  </si>
-  <si>
-    <t>R$ 1.150,00</t>
-  </si>
-  <si>
-    <t>Monica Regina Jorge</t>
-  </si>
-  <si>
-    <t>R$ 1.560,00</t>
-  </si>
-  <si>
-    <t>Rosalina Constantino</t>
-  </si>
-  <si>
-    <t>05/09/2025</t>
-  </si>
-  <si>
-    <t>Genivaldo Lopes De Araujo</t>
-  </si>
-  <si>
-    <t>11/09/2025</t>
-  </si>
-  <si>
-    <t>Erivaldo Bispo Dos Santos</t>
-  </si>
-  <si>
     <t>Jose Roberto Dos Santos</t>
   </si>
   <si>
@@ -448,10 +448,10 @@
     <t>R$ 2.100,00</t>
   </si>
   <si>
-    <t>R$ 5.960,00</t>
-  </si>
-  <si>
-    <t>R$ 8.170,00</t>
+    <t>R$ 2.260,00</t>
+  </si>
+  <si>
+    <t>R$ 11.870,00</t>
   </si>
   <si>
     <t>R$ 14.130,00</t>
@@ -550,10 +550,10 @@
     <t>R$ 1.499,90</t>
   </si>
   <si>
-    <t>R$ 4.376,50</t>
-  </si>
-  <si>
-    <t>R$ 4.479,90</t>
+    <t>R$ 3.194,90</t>
+  </si>
+  <si>
+    <t>R$ 5.661,50</t>
   </si>
   <si>
     <t>R$ 8.856,40</t>
@@ -1801,7 +1801,7 @@
         <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1814,7 +1814,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1827,7 +1827,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1840,7 +1840,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1879,7 @@
     <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3">
         <v>51103</v>
@@ -1935,13 +1935,13 @@
         <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>23</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3">
         <v>51105</v>
@@ -1958,16 +1958,16 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1980,7 +1980,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1993,7 +1993,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2006,7 +2006,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3">
         <v>50635</v>
@@ -2101,13 +2101,13 @@
         <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3">
         <v>50828</v>
@@ -2124,13 +2124,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3">
         <v>50953</v>
@@ -2147,13 +2147,13 @@
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3">
         <v>51004</v>
@@ -2170,7 +2170,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>76</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3">
         <v>51056</v>
@@ -2193,21 +2193,21 @@
         <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3">
         <v>51180</v>
@@ -2216,16 +2216,16 @@
         <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2238,7 +2238,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2251,7 +2251,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2264,7 +2264,7 @@
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>50939</v>
@@ -2359,13 +2359,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3">
         <v>51036</v>
@@ -2382,16 +2382,16 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2417,7 +2417,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2430,7 +2430,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3">
         <v>50587</v>
@@ -2525,7 +2525,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3">
         <v>50783</v>
@@ -2548,13 +2548,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3">
         <v>50817</v>
@@ -2571,13 +2571,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3">
         <v>50868</v>
@@ -2594,21 +2594,21 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="3">
         <v>50974</v>
@@ -2617,10 +2617,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>87</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3">
         <v>50989</v>
@@ -2640,13 +2640,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3">
         <v>51008</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="3">
         <v>51154</v>
@@ -2695,12 +2695,12 @@
         <v>138</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3">
         <v>51149</v>
@@ -2924,7 +2924,7 @@
         <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>151</v>
@@ -3234,7 +3234,7 @@
         <v>172</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_vendedor.xlsx
@@ -4,10 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sibely Fernandes" sheetId="1" r:id="rId4"/>
+    <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
+    <sheet name="Andressa Leite" sheetId="2" r:id="rId5"/>
+    <sheet name="Carmen Silva" sheetId="3" r:id="rId6"/>
+    <sheet name="Drielly Silva" sheetId="4" r:id="rId7"/>
+    <sheet name="Greicy Carvalho" sheetId="5" r:id="rId8"/>
+    <sheet name="Sibely Fernandes" sheetId="6" r:id="rId9"/>
+    <sheet name="Sttefani Cerqueira" sheetId="7" r:id="rId10"/>
+    <sheet name="Suzana Baldenebro" sheetId="8" r:id="rId11"/>
+    <sheet name="Terezinha França" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,111 +23,486 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>Campanha 76</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+  <si>
+    <t>Campanha 77</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/09/2025 - 20/10/2025</t>
+    <t>21/10/2025 - 20/11/2025</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>N° Boleto</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Data Venda</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ana Maria Montanher Viana</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Kelliane Ribeiro Do Nascimento</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.400,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Celia Reinalda Faustino Rodrigues</t>
+  </si>
+  <si>
+    <t>R$ 850,00</t>
+  </si>
+  <si>
+    <t>Givanildo Alves Pinheiro</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 5.000,00</t>
+  </si>
+  <si>
+    <t>Maria Vitoria Dos Santos Moura</t>
+  </si>
+  <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 650,00</t>
+  </si>
+  <si>
+    <t>Luciano Oliveira Moraes</t>
+  </si>
+  <si>
+    <t>01/11/2025</t>
+  </si>
+  <si>
+    <t>Ana Cristina Lelo</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 490,00</t>
+  </si>
+  <si>
+    <t>Maria Elizabete Deco Duarte Bueno</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 800,00</t>
+  </si>
+  <si>
+    <t>Esmeralda Gutierres</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.566,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Total Pendente:</t>
+  </si>
+  <si>
+    <t>Total Convertido:</t>
+  </si>
+  <si>
+    <t>R$ 10.040,00</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 11.606,00</t>
+  </si>
+  <si>
+    <t>Andressa Marcelino De Mattos Leite</t>
+  </si>
+  <si>
+    <t>Ótica Prestigio</t>
+  </si>
+  <si>
+    <t>Rosely Teixeira De Oliveira Moraes</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 890,00</t>
+  </si>
+  <si>
+    <t>Aparecida Conceicao Maechetto Nabarro</t>
+  </si>
+  <si>
+    <t>R$ 2.540,00</t>
+  </si>
+  <si>
+    <t>Lafaiete Ferreira Da Silva</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>Luiz Antonio Sarza Mendes</t>
+  </si>
+  <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.699,00</t>
+  </si>
+  <si>
+    <t>R$ 4.080,00</t>
+  </si>
+  <si>
+    <t>R$ 5.779,00</t>
+  </si>
+  <si>
+    <t>Carmen Lucia Marciano Da Silva</t>
+  </si>
+  <si>
+    <t>Tsutomo Arashiro</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 900,00</t>
+  </si>
+  <si>
+    <t>Renata Juhas Coutinho</t>
+  </si>
+  <si>
+    <t>R$ 2.400,00</t>
+  </si>
+  <si>
+    <t>Jose Wellington Da Silva</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>Gercina Alaide Da Silva Zezinho</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.000,00</t>
+  </si>
+  <si>
+    <t>R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>R$ 4.400,00</t>
+  </si>
+  <si>
+    <t>R$ 6.700,00</t>
+  </si>
+  <si>
+    <t>Drielly Da Silva</t>
+  </si>
+  <si>
+    <t>Maria Jose Bezerra Dos Santos</t>
+  </si>
+  <si>
+    <t>R$ 410,00</t>
+  </si>
+  <si>
+    <t>Nair Buriola Luque</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.950,00</t>
+  </si>
+  <si>
+    <t>Maria De Assis Araujo</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 2.750,00</t>
+  </si>
+  <si>
+    <t>R$ 3.160,00</t>
+  </si>
+  <si>
+    <t>Greicy Kelly Aparecida De Carvalho</t>
+  </si>
+  <si>
+    <t>Rosana Aparecida Da Rocha</t>
+  </si>
+  <si>
+    <t>25/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>Andreia Maria De Sousa Silva</t>
+  </si>
+  <si>
     <t>06/11/2025</t>
   </si>
   <si>
-    <t>PAGAMENTO PÓS:</t>
-  </si>
-  <si>
-    <t>05/12/2025</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>N° Boleto</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Data Venda</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>R$ 520,00</t>
+  </si>
+  <si>
+    <t>Maria Marta Gomes Dos Anjos</t>
+  </si>
+  <si>
+    <t>Josuel Doroteu Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.700,00</t>
+  </si>
+  <si>
+    <t>Mirma Caramello</t>
+  </si>
+  <si>
+    <t>R$ 4.650,00</t>
+  </si>
+  <si>
+    <t>R$ 7.150,00</t>
+  </si>
+  <si>
+    <t>R$ 1.520,00</t>
+  </si>
+  <si>
+    <t>R$ 8.670,00</t>
   </si>
   <si>
     <t>Sibely Maria Siqueira Fernandes</t>
   </si>
   <si>
-    <t>Ótica Matriz</t>
-  </si>
-  <si>
-    <t>Evangelina Alves Barreto</t>
-  </si>
-  <si>
-    <t>23/09/2025</t>
-  </si>
-  <si>
-    <t>R$ 750,00</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Gislene Luzia Gomes Fameli</t>
-  </si>
-  <si>
-    <t>R$ 700,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Carolina Castellani Gazza</t>
-  </si>
-  <si>
-    <t>25/09/2025</t>
-  </si>
-  <si>
-    <t>R$ 400,00</t>
-  </si>
-  <si>
-    <t>Edna Ferreira De Sousa</t>
-  </si>
-  <si>
-    <t>01/10/2025</t>
-  </si>
-  <si>
-    <t>R$ 1.900,00</t>
-  </si>
-  <si>
-    <t>Total Pendente:</t>
-  </si>
-  <si>
-    <t>R$ 2.650,00</t>
-  </si>
-  <si>
-    <t>Total Convertido:</t>
-  </si>
-  <si>
-    <t>R$ 1.100,00</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>R$ 3.750,00</t>
+    <t>Lourdes Aparecida Bento</t>
+  </si>
+  <si>
+    <t>R$ 1.890,00</t>
+  </si>
+  <si>
+    <t>Mariely Natalia Bueno Escudeiro</t>
+  </si>
+  <si>
+    <t>R$ 660,00</t>
+  </si>
+  <si>
+    <t>Maria Cristina Tavares Da Silva</t>
+  </si>
+  <si>
+    <t>Mariano De Sousa Neto</t>
+  </si>
+  <si>
+    <t>R$ 1.200,00</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 5.150,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Juraci Nascimento</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 990,00</t>
+  </si>
+  <si>
+    <t>Raimunda Carvalho Dos Santos</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.280,00</t>
+  </si>
+  <si>
+    <t>Manuelita Rodrigues Cruz</t>
+  </si>
+  <si>
+    <t>R$ 1.450,00</t>
+  </si>
+  <si>
+    <t>Marcia Messias Machado</t>
+  </si>
+  <si>
+    <t>Noemia Ferreira Da Silva</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 3.530,00</t>
+  </si>
+  <si>
+    <t>R$ 3.290,00</t>
+  </si>
+  <si>
+    <t>R$ 6.820,00</t>
+  </si>
+  <si>
+    <t>Suzana Jodar Alfaro Baldenebro</t>
+  </si>
+  <si>
+    <t>Ricardo Garcia Zotesso</t>
+  </si>
+  <si>
+    <t>R$ 162,00</t>
+  </si>
+  <si>
+    <t>Maria Da Saude Ribeiro Nascimento Bertuliro</t>
+  </si>
+  <si>
+    <t>R$ 1.500,00</t>
+  </si>
+  <si>
+    <t>Juliana Nikacia De Sousa</t>
+  </si>
+  <si>
+    <t>TAHLITA AL</t>
+  </si>
+  <si>
+    <t>Thalita Alves Monteiro</t>
+  </si>
+  <si>
+    <t>R$ 600,00</t>
+  </si>
+  <si>
+    <t>Aurea De Almeida Campos</t>
+  </si>
+  <si>
+    <t>R$ 950,00</t>
+  </si>
+  <si>
+    <t>Maria Avany Da Silva</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>R$ 1.152,00</t>
+  </si>
+  <si>
+    <t>R$ 2.864,00</t>
+  </si>
+  <si>
+    <t>R$ 3.000,00</t>
+  </si>
+  <si>
+    <t>R$ 5.864,00</t>
+  </si>
+  <si>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Jose Vitor Nunes Sousa</t>
+  </si>
+  <si>
+    <t>Vitoria Satiro De Oliveira</t>
+  </si>
+  <si>
+    <t>Idemauro Camata</t>
+  </si>
+  <si>
+    <t>R$ 2.550,00</t>
+  </si>
+  <si>
+    <t>Dragica Motrowic</t>
+  </si>
+  <si>
+    <t>R$ 4.800,00</t>
+  </si>
+  <si>
+    <t>Jonathan Gomes Pereira</t>
+  </si>
+  <si>
+    <t>R$ 340,00</t>
+  </si>
+  <si>
+    <t>Nataly Campioto Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.319,80</t>
+  </si>
+  <si>
+    <t>Mateus Jailto Saraiva De Souza</t>
+  </si>
+  <si>
+    <t>R$ 2.240,00</t>
+  </si>
+  <si>
+    <t>Leonardo Boldo Martinez De Oliveira</t>
+  </si>
+  <si>
+    <t>R$ 399,80</t>
+  </si>
+  <si>
+    <t>Luciana Gomes Dos Santos Almeida</t>
+  </si>
+  <si>
+    <t>R$ 130,00</t>
+  </si>
+  <si>
+    <t>Dayane Francine Smeets</t>
+  </si>
+  <si>
+    <t>R$ 5.319,80</t>
+  </si>
+  <si>
+    <t>R$ 8.599,80</t>
+  </si>
+  <si>
+    <t>R$ 13.919,60</t>
   </si>
 </sst>
 </file>
@@ -493,18 +876,322 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="33.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51920</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51889</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>51983</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52006</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52064</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>52180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>52104</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52244</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="46.989" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -514,138 +1201,134 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3">
-        <v>51252</v>
+        <v>51869</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3">
-        <v>51233</v>
+        <v>51919</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
-        <v>51283</v>
+        <v>52048</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3">
-        <v>51439</v>
+        <v>52095</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -655,26 +1338,1727 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51877</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51891</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3">
+        <v>51960</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52227</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="37.562" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51897</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3">
+        <v>52144</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52283</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51930</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3">
+        <v>52127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52145</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52139</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3">
+        <v>52041</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3">
+        <v>52117</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52197</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52224</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51835</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3">
+        <v>52040</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52149</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52293</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="54.13" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51940</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="3">
+        <v>52046</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="3">
+        <v>52057</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52292</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3">
+        <v>52313</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.853" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51937</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2772</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="3">
+        <v>51965</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3">
+        <v>52030</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52059</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="3">
+        <v>52090</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="3">
+        <v>52234</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52282</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3">
+        <v>52298</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="3">
+        <v>52147</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
